--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1015046.346327367</v>
+        <v>1012467.133109686</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>269.1815923919679</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>26.67760019147268</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>86.78521310248371</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>103.5502493562706</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>221.5074231265872</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>251.7120061277611</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>133.5502476544857</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>89.42543414927444</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>142.3334434817005</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>112.0671409129194</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>85.32381983497358</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>87.003412464203</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662300028</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.60777203238035</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>97.97552699114107</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>175.7577659975479</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035266</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842604</v>
       </c>
       <c r="E13" t="n">
-        <v>46.94036979565946</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146344</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>20.19430196170772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986284</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833694</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64713141731143</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.155784569984</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>112.668313093795</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>38.61213096654769</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>61.66004604094911</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G31" t="n">
-        <v>132.6315337216688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>216.4795114578111</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>253.2918698186446</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>120.7871326503982</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>107.4021082756238</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>38.61213096654769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1516.021891551489</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="C2" t="n">
-        <v>1147.059374611078</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="D2" t="n">
-        <v>1147.059374611078</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="E2" t="n">
-        <v>1147.059374611078</v>
+        <v>475.1976173801487</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353527</v>
+        <v>64.21171259054111</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272273</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723691</v>
+        <v>287.6947354520161</v>
       </c>
       <c r="L2" t="n">
-        <v>1096.123594092263</v>
+        <v>525.3175166702063</v>
       </c>
       <c r="M2" t="n">
-        <v>1392.194160649864</v>
+        <v>1013.594243832066</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.669266885447</v>
+        <v>1654.61745345196</v>
       </c>
       <c r="O2" t="n">
-        <v>1972.78548620208</v>
+        <v>1929.733672768592</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068627</v>
+        <v>2448.618721147462</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2258.929878797415</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1906.161223527301</v>
+        <v>1624.590960215284</v>
       </c>
       <c r="X2" t="n">
-        <v>1906.161223527301</v>
+        <v>1251.125201954205</v>
       </c>
       <c r="Y2" t="n">
-        <v>1516.021891551489</v>
+        <v>860.9858699783929</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>323.3685994072329</v>
       </c>
       <c r="L3" t="n">
-        <v>966.4070903028498</v>
+        <v>900.091414510487</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.346621798336</v>
+        <v>1164.030946005973</v>
       </c>
       <c r="N3" t="n">
-        <v>1515.680492231667</v>
+        <v>1723.657007090158</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067087</v>
+        <v>2352.385654925577</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>389.0578106576028</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="C4" t="n">
-        <v>220.1216277296958</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="D4" t="n">
-        <v>220.1216277296958</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="E4" t="n">
-        <v>220.1216277296958</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4513,25 +4513,25 @@
         <v>1193.542248702562</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702562</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="T4" t="n">
-        <v>969.1310894780001</v>
+        <v>766.6588426383016</v>
       </c>
       <c r="U4" t="n">
-        <v>969.1310894780001</v>
+        <v>678.9970112216514</v>
       </c>
       <c r="V4" t="n">
-        <v>714.4466012721133</v>
+        <v>424.3125230157646</v>
       </c>
       <c r="W4" t="n">
-        <v>609.8503898011329</v>
+        <v>424.3125230157646</v>
       </c>
       <c r="X4" t="n">
-        <v>609.8503898011329</v>
+        <v>424.3125230157646</v>
       </c>
       <c r="Y4" t="n">
-        <v>389.0578106576028</v>
+        <v>203.5199438722344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1551.254651426909</v>
+        <v>1140.796480512552</v>
       </c>
       <c r="C5" t="n">
-        <v>1182.292134486497</v>
+        <v>1140.796480512552</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.292134486497</v>
+        <v>782.5307819058019</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>782.5307819058019</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>371.5448771161943</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4568,10 +4568,10 @@
         <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
@@ -4583,7 +4583,7 @@
         <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2127.76817854206</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2127.76817854206</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="W5" t="n">
-        <v>1774.999523271946</v>
+        <v>1904.401570749444</v>
       </c>
       <c r="X5" t="n">
-        <v>1774.999523271946</v>
+        <v>1530.935812488364</v>
       </c>
       <c r="Y5" t="n">
-        <v>1774.999523271946</v>
+        <v>1140.796480512552</v>
       </c>
     </row>
     <row r="6">
@@ -4629,16 +4629,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
@@ -4647,22 +4647,22 @@
         <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>301.946747225829</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421438</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M6" t="n">
-        <v>1219.783862516112</v>
+        <v>1240.281905962038</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136006</v>
+        <v>1630.69146728778</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.0713465238762</v>
+        <v>517.7426251609727</v>
       </c>
       <c r="C7" t="n">
-        <v>439.1351635959693</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D7" t="n">
-        <v>439.1351635959693</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E7" t="n">
-        <v>439.1351635959693</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>292.2452160980589</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121973</v>
@@ -4759,16 +4759,16 @@
         <v>1125.478067458854</v>
       </c>
       <c r="V7" t="n">
-        <v>1125.478067458854</v>
+        <v>1035.149346095951</v>
       </c>
       <c r="W7" t="n">
-        <v>836.0608974218935</v>
+        <v>745.73217605899</v>
       </c>
       <c r="X7" t="n">
-        <v>608.0713465238762</v>
+        <v>517.7426251609727</v>
       </c>
       <c r="Y7" t="n">
-        <v>608.0713465238762</v>
+        <v>517.7426251609727</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.528110618235</v>
+        <v>1652.934136166469</v>
       </c>
       <c r="C8" t="n">
-        <v>1303.565593677823</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D8" t="n">
-        <v>945.2998950710726</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>945.2998950710726</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>534.3139902814651</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
         <v>117.2903254719911</v>
@@ -4805,10 +4805,10 @@
         <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618235</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="W8" t="n">
-        <v>1672.528110618235</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="X8" t="n">
-        <v>1672.528110618235</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.528110618235</v>
+        <v>1796.70529119849</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4884,25 +4884,25 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>573.7192355186005</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L9" t="n">
-        <v>871.0311846349152</v>
+        <v>1067.800081832728</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.337074127241</v>
+        <v>1434.105971325053</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452983</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
-        <v>1962.675316168515</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.0145430021564</v>
+        <v>367.625985748637</v>
       </c>
       <c r="C10" t="n">
-        <v>456.0783600742495</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="D10" t="n">
-        <v>305.9617206619138</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E10" t="n">
-        <v>219.7760440609304</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4960,7 +4960,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121973</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.862307910904</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.862307910904</v>
+        <v>1139.717194889502</v>
       </c>
       <c r="V10" t="n">
-        <v>1544.862307910904</v>
+        <v>885.0327066836151</v>
       </c>
       <c r="W10" t="n">
-        <v>1255.445137873944</v>
+        <v>595.6155366466544</v>
       </c>
       <c r="X10" t="n">
-        <v>1027.455586975926</v>
+        <v>367.625985748637</v>
       </c>
       <c r="Y10" t="n">
-        <v>806.6630078323961</v>
+        <v>367.625985748637</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408906</v>
+        <v>1535.258832689349</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468495</v>
+        <v>1166.296315748937</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861744</v>
+        <v>808.0306171421862</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.4022032635</v>
+        <v>422.2423645439421</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738922</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="G11" t="n">
         <v>393.8408528035379</v>
@@ -5036,55 +5036,55 @@
         <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.733397138683</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420337</v>
+        <v>704.5155104420315</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856281</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882239</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.55331123459</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455662</v>
+        <v>3826.588132455659</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971442</v>
+        <v>3622.786021971439</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.252925004222</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3445.252925004222</v>
+        <v>3038.232418260476</v>
       </c>
       <c r="W11" t="n">
-        <v>3092.484269734108</v>
+        <v>2685.463762990362</v>
       </c>
       <c r="X11" t="n">
-        <v>2719.018511473028</v>
+        <v>2311.998004729282</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473028</v>
+        <v>1921.85867275347</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469185</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469185</v>
+        <v>196.8120623792127</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469185</v>
+        <v>477.16213223765</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843894</v>
+        <v>900.4499396649594</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282788</v>
+        <v>1337.658805224962</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1878.967112576028</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.4583010335024</v>
+        <v>385.513523076094</v>
       </c>
       <c r="C13" t="n">
-        <v>443.5221181055955</v>
+        <v>216.5773401481871</v>
       </c>
       <c r="D13" t="n">
-        <v>293.4054786932597</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="E13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.4550473457701</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888913</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
         <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
         <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014273</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.288681564318</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1566.197975004607</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1311.51348679872</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.096316761759</v>
+        <v>834.2956531176415</v>
       </c>
       <c r="X13" t="n">
-        <v>794.1067658637421</v>
+        <v>606.3061022196241</v>
       </c>
       <c r="Y13" t="n">
-        <v>794.1067658637421</v>
+        <v>385.513523076094</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,13 +5261,13 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,52 +5276,52 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779265</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>701.6502561102859</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>532.714073182379</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>382.5974337700433</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608056</v>
@@ -5434,13 +5434,13 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5455,10 +5455,10 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
         <v>2177.3462391076</v>
@@ -5467,19 +5467,19 @@
         <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136709</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
         <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893862</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1104.091300084056</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>883.2987209405256</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="D19" t="n">
-        <v>444.701316492522</v>
+        <v>194.8007783998274</v>
       </c>
       <c r="E19" t="n">
-        <v>296.788222910129</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5683,10 +5683,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,22 +5756,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D22" t="n">
-        <v>402.724593490894</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>402.724593490894</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.724593490894</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>594.8179559048574</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>446.9048623224644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>300.0149148245542</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>132.8188155394342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925215</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925215</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>297.8113689946113</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098234</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819165</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695806</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871876</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400714</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277356</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>215.8238677453426</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>215.8238677453426</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133953</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7652,7 +7652,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7661,10 +7661,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048576</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037413</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>194.1476369739987</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>105.5188389671167</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>173.3606393942774</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>277.0628188392457</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>256.7871481632757</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870218</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>22.36271716134894</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>148.4266296017847</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>36.65812069213189</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-6.093515151396641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187111</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>75.19804320616977</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.92986183395195</v>
       </c>
       <c r="E13" t="n">
-        <v>99.49359285090972</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537621</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5153534273294</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823223</v>
       </c>
       <c r="F19" t="n">
-        <v>84.77391660561982</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844822836</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>101.6825818796762</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>103.8640922513197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G31" t="n">
-        <v>32.89260457060072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>69.70496293143312</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>32.89260457059957</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>44.73700564187068</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>73.62417772602083</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131184</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253558</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.973425356</v>
       </c>
-      <c r="C2" t="n">
-        <v>451572.9734253561</v>
-      </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795043</v>
+        <v>405380.8397795039</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295031</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="N2" t="n">
         <v>443930.6298295034</v>
@@ -26366,16 +26366,16 @@
         <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898954</v>
+        <v>172764.3597898953</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318590.5451569111</v>
+        <v>318590.5451569107</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051381</v>
+        <v>166521.3471051386</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557874</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>83206.75751987677</v>
+        <v>83206.7575198766</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584893</v>
+        <v>43782.40655848931</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224429</v>
@@ -26421,7 +26421,7 @@
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6188.359574389008</v>
@@ -26433,31 +26433,31 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695058</v>
+        <v>6287.480531695035</v>
       </c>
       <c r="M4" t="n">
+        <v>6287.480531695031</v>
+      </c>
+      <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="N4" t="n">
-        <v>6287.480531695052</v>
-      </c>
       <c r="O4" t="n">
+        <v>6287.480531695056</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214713</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-737240.8761621909</v>
+        <v>-737240.8761621912</v>
       </c>
       <c r="C6" t="n">
-        <v>56260.76954870319</v>
+        <v>56260.76954870322</v>
       </c>
       <c r="D6" t="n">
-        <v>229025.1293385984</v>
+        <v>229025.1293385985</v>
       </c>
       <c r="E6" t="n">
-        <v>-5491.787113942919</v>
+        <v>-5701.751357787598</v>
       </c>
       <c r="F6" t="n">
-        <v>168529.4508714708</v>
+        <v>168483.5458759047</v>
       </c>
       <c r="G6" t="n">
-        <v>325353.3832383225</v>
+        <v>325318.6453128869</v>
       </c>
       <c r="H6" t="n">
-        <v>336520.6194739013</v>
+        <v>336485.8815484656</v>
       </c>
       <c r="I6" t="n">
-        <v>336520.6194739014</v>
+        <v>336485.8815484655</v>
       </c>
       <c r="J6" t="n">
-        <v>167106.6026478531</v>
+        <v>167071.8647224175</v>
       </c>
       <c r="K6" t="n">
-        <v>336520.6194739012</v>
+        <v>336485.8815484655</v>
       </c>
       <c r="L6" t="n">
-        <v>336520.6194739009</v>
+        <v>336485.8815484653</v>
       </c>
       <c r="M6" t="n">
-        <v>253313.8619540245</v>
+        <v>253279.1240285888</v>
       </c>
       <c r="N6" t="n">
-        <v>292738.2129154119</v>
+        <v>292703.4749899762</v>
       </c>
       <c r="O6" t="n">
-        <v>333497.3214966768</v>
+        <v>333462.583571241</v>
       </c>
       <c r="P6" t="n">
-        <v>336520.6194739012</v>
+        <v>336485.8815484655</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26796,7 +26796,7 @@
         <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086481</v>
+        <v>981.3883278086474</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26960,16 +26960,16 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522371</v>
+        <v>189.725434152237</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272.4638768447111</v>
+        <v>272.4638768447107</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218304</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26987,13 +26987,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>333.8901362734016</v>
+        <v>333.8901362734009</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173595</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362734016</v>
+        <v>333.8901362734009</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173595</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362734016</v>
+        <v>333.8901362734009</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173595</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>137.6944533497435</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>322.5633685259403</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994864</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>199.4600476353353</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>182.9727489803204</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>161.2264185368934</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>159.8130172541082</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>32.74617919624384</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>162.7122091745535</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>240.4003981817801</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>299.4578824689499</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>61.11014281159559</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>199.2231867555026</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
@@ -31297,16 +31297,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583803</v>
@@ -31379,7 +31379,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31394,7 +31394,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315819</v>
@@ -31440,7 +31440,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31449,7 +31449,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979552</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,10 +31513,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
@@ -31534,16 +31534,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583803</v>
@@ -31616,7 +31616,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31631,7 +31631,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315819</v>
@@ -31677,7 +31677,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31686,7 +31686,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979552</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485647</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508989</v>
       </c>
       <c r="I11" t="n">
         <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726053</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216968</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857421</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898383</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294404</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615134</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895584</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596473</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202552</v>
       </c>
       <c r="L12" t="n">
-        <v>544.2170489310839</v>
+        <v>566.1178216256412</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>583.7591506492934</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147137</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431806</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697584</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
         <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
         <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
         <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570605</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826899</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -32072,19 +32072,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>150.4305144013744</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>640.3146339032908</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
@@ -32099,7 +32099,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>189.0011860883002</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,7 +33974,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>309.9424824173362</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
         <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
+        <v>240.0230113315052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>493.2088153150096</v>
+      </c>
+      <c r="N2" t="n">
         <v>647.4981915352465</v>
-      </c>
-      <c r="M2" t="n">
-        <v>299.061178341011</v>
-      </c>
-      <c r="N2" t="n">
-        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>307.8464422894416</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>385.0685921749133</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
         <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>565.2788495799845</v>
       </c>
       <c r="O3" t="n">
         <v>635.0794422579995</v>
@@ -34796,10 +34796,10 @@
         <v>174.0696575289985</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
         <v>360.385208115341</v>
@@ -34945,19 +34945,19 @@
         <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342472</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.1266691917136</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
         <v>188.5469589931442</v>
@@ -35021,19 +35021,19 @@
         <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>626.7930971454227</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352465</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>360.6745158639057</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597958</v>
@@ -35106,7 +35106,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
         <v>202.2269825633448</v>
@@ -35173,7 +35173,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.385208115341</v>
@@ -35182,19 +35182,19 @@
         <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,28 +35252,28 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>336.9735885949289</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M9" t="n">
         <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>431.0112129403566</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225506</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597958</v>
@@ -35343,7 +35343,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
         <v>202.2269825633448</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276248</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584694</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932474</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077536</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062438</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151089</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156587</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458962</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512097</v>
+        <v>427.563441845767</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>441.6251167272751</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.7760680313804</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987362</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211629</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936561</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.1825931670183</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765378</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998349</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>12.58907542701537</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>498.1805999812725</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
@@ -35747,7 +35747,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37622,7 +37622,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>167.3462379728918</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
